--- a/Pesquisa_Dados_e_Mapas.xlsx
+++ b/Pesquisa_Dados_e_Mapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\Fiap\otimizacao_rotas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A5E5ED-F27C-49C0-AAA4-F9DE78698D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FCD70A-6AE8-4D93-99F0-2FF357C6B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="485">
   <si>
     <t>Municípios</t>
   </si>
@@ -1586,11 +1586,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1905,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EED7921-83C4-4D8B-B8CA-7FEC22299C17}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,258 +2072,6 @@
         <v>-28776865</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>88</v>
-      </c>
-      <c r="C12">
-        <v>-51312278</v>
-      </c>
-      <c r="D12">
-        <v>-29391928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>189</v>
-      </c>
-      <c r="C13">
-        <v>-52250951</v>
-      </c>
-      <c r="D13">
-        <v>-30875579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>432</v>
-      </c>
-      <c r="C14">
-        <v>-53183005</v>
-      </c>
-      <c r="D14">
-        <v>-27360656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>197</v>
-      </c>
-      <c r="C15">
-        <v>-51579729</v>
-      </c>
-      <c r="D15">
-        <v>-28628294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>176</v>
-      </c>
-      <c r="C16">
-        <v>-52010191</v>
-      </c>
-      <c r="D16">
-        <v>-28969772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>174</v>
-      </c>
-      <c r="C17">
-        <v>-51288263</v>
-      </c>
-      <c r="D17">
-        <v>-28856544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>153</v>
-      </c>
-      <c r="C18">
-        <v>-51504586</v>
-      </c>
-      <c r="D18">
-        <v>-30909248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>62</v>
-      </c>
-      <c r="C19">
-        <v>-50929128</v>
-      </c>
-      <c r="D19">
-        <v>-29616832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>404</v>
-      </c>
-      <c r="C20">
-        <v>-52297461</v>
-      </c>
-      <c r="D20">
-        <v>-27397787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>116</v>
-      </c>
-      <c r="C21">
-        <v>-51955735</v>
-      </c>
-      <c r="D21">
-        <v>-29401353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>260</v>
-      </c>
-      <c r="C22">
-        <v>-52424598</v>
-      </c>
-      <c r="D22">
-        <v>-31438942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>160</v>
-      </c>
-      <c r="C23">
-        <v>-49889537</v>
-      </c>
-      <c r="D23">
-        <v>-29543872</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>55</v>
-      </c>
-      <c r="C24">
-        <v>-51727479</v>
-      </c>
-      <c r="D24">
-        <v>-30087545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>239</v>
-      </c>
-      <c r="C25">
-        <v>-53096627</v>
-      </c>
-      <c r="D25">
-        <v>-29334829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>336</v>
-      </c>
-      <c r="C26">
-        <v>-53086155</v>
-      </c>
-      <c r="D26">
-        <v>-32232657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>399</v>
-      </c>
-      <c r="C27">
-        <v>-53988292</v>
-      </c>
-      <c r="D27">
-        <v>-28517249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>400</v>
-      </c>
-      <c r="C28">
-        <v>-52050506</v>
-      </c>
-      <c r="D28">
-        <v>-27693586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>95</v>
-      </c>
-      <c r="C29">
-        <v>-50233655</v>
-      </c>
-      <c r="D29">
-        <v>-30241938</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2334,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9068,13 +8816,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>478</v>
       </c>
     </row>
